--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>3.201421350240707e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>3.201421350240707e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77324.65008319276</v>
+        <v>5161142.816707173</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77324.65008319276</v>
+        <v>5161142.816707173</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1340727833.700263</v>
+        <v>48290498.60281333</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13353.88958968044</v>
+        <v>1016526.663856631</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26516.77380343871</v>
+        <v>1999077.814024657</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39679.65801719693</v>
+        <v>2981628.964192683</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53123.32363039488</v>
+        <v>3962313.804582274</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66554.01898848213</v>
+        <v>4943880.161639194</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79984.71434656938</v>
+        <v>5925446.518696114</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93415.39325760084</v>
+        <v>6907012.875753029</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>106846.0844852433</v>
+        <v>7888579.232809943</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120289.7500984412</v>
+        <v>8869264.073199525</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133733.4157116392</v>
+        <v>9849948.913589114</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147164.1110697265</v>
+        <v>10831515.27064603</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160594.8064278138</v>
+        <v>11813081.62770295</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174025.5017859011</v>
+        <v>12794647.98475987</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187456.1971439882</v>
+        <v>13776214.34181681</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>200899.8627571864</v>
+        <v>14756899.18220639</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -27052,13 +27052,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>176</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
